--- a/REGULAR/TREASURY/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/TREASURY/ALEGA, ESTELITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E625FEFC-9FEB-4C86-86A2-15E58065B714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDC144-A4D9-4F03-B4C2-6F7C84E4FACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>2/15,16,17</t>
+  </si>
+  <si>
+    <t>3/10,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1434,12 +1437,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A93" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A96" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,7 +1607,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54.787999999999997</v>
+        <v>55.037999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1614,7 +1617,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>25.754999999999995</v>
+        <v>25.004999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3765,27 +3768,37 @@
       <c r="A104" s="40">
         <v>44986</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="B104" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H104" s="39">
+        <v>2</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B105" s="20"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="39">
+        <v>1</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
@@ -3795,11 +3808,13 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="48">
+        <v>45015</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3817,7 +3832,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3835,7 +3850,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3853,7 +3868,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3871,7 +3886,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3889,7 +3904,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3907,7 +3922,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3925,7 +3940,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3943,7 +3958,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3961,7 +3976,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3979,7 +3994,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3997,7 +4012,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4015,7 +4030,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4033,7 +4048,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4051,7 +4066,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4069,7 +4084,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4087,7 +4102,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4105,7 +4120,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4123,7 +4138,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4141,7 +4156,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4159,7 +4174,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4177,7 +4192,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4195,7 +4210,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4213,7 +4228,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4231,7 +4246,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4249,7 +4264,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4267,7 +4282,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4284,7 +4299,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>45839</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -4364,20 +4381,36 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/TREASURY/ALEGA, ESTELITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDC144-A4D9-4F03-B4C2-6F7C84E4FACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA002FB-DFBA-4D00-A5E7-22BEE343D31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>PERIOD</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>3/10,27/2023</t>
+  </si>
+  <si>
+    <t>3/2,3/2023</t>
   </si>
 </sst>
 </file>
@@ -1440,9 +1443,9 @@
   <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A96" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="3696" topLeftCell="A97" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G108:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,7 +1620,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>25.004999999999995</v>
+        <v>23.004999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3816,7 +3819,9 @@
       <c r="A106" s="40">
         <v>45017</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
@@ -3825,10 +3830,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H106" s="39"/>
+      <c r="H106" s="39">
+        <v>2</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
